--- a/backend/data/contacts.xlsx
+++ b/backend/data/contacts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -522,9 +522,129 @@
         <v>fakdfjk</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Gaja</v>
+      </c>
+      <c r="B7" t="str">
+        <v>etiru9.2001@gmail.com</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2024-06-06T11:38:34.563Z</v>
+      </c>
+      <c r="D7" t="str">
+        <v>UK</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3999383939</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Hi</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Ram</v>
+      </c>
+      <c r="B8" t="str">
+        <v>etiru9.2001@gmail.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2024-06-06T11:55:44.205Z</v>
+      </c>
+      <c r="D8" t="str">
+        <v>USA</v>
+      </c>
+      <c r="E8" t="str">
+        <v>999388883</v>
+      </c>
+      <c r="F8" t="str">
+        <v>fadjf</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>namita</v>
+      </c>
+      <c r="B9" t="str">
+        <v>namita@gmail.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2024-06-06T11:57:45.344Z</v>
+      </c>
+      <c r="D9" t="str">
+        <v>UK</v>
+      </c>
+      <c r="E9" t="str">
+        <v>9993889993</v>
+      </c>
+      <c r="F9" t="str">
+        <v>hi</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>tiru</v>
+      </c>
+      <c r="B10" t="str">
+        <v>ram</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2024-06-06T11:59:37.470Z</v>
+      </c>
+      <c r="D10" t="str">
+        <v>USA</v>
+      </c>
+      <c r="E10" t="str">
+        <v>63563</v>
+      </c>
+      <c r="F10" t="str">
+        <v>fadf</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Triu</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ti</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2024-06-06T12:01:50.507Z</v>
+      </c>
+      <c r="D11" t="str">
+        <v>UK</v>
+      </c>
+      <c r="E11" t="str">
+        <v>99393939</v>
+      </c>
+      <c r="F11" t="str">
+        <v>fkdajf</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>nayan</v>
+      </c>
+      <c r="B12" t="str">
+        <v>etiru9.2001@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2024-06-06T12:17:35.509Z</v>
+      </c>
+      <c r="D12" t="str">
+        <v>UK</v>
+      </c>
+      <c r="E12" t="str">
+        <v>993899993</v>
+      </c>
+      <c r="F12" t="str">
+        <v>fdaf</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/contacts.xlsx
+++ b/backend/data/contacts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -642,9 +642,29 @@
         <v>fdaf</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>ram</v>
+      </c>
+      <c r="B13" t="str">
+        <v>etiru9.2001@gmail.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2024-06-06T18:55:37.086Z</v>
+      </c>
+      <c r="D13" t="str">
+        <v>UK</v>
+      </c>
+      <c r="E13" t="str">
+        <v>993883993</v>
+      </c>
+      <c r="F13" t="str">
+        <v>I want more information</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/contacts.xlsx
+++ b/backend/data/contacts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -662,9 +662,29 @@
         <v>I want more information</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>nayan</v>
+      </c>
+      <c r="B14" t="str">
+        <v>nayan@gmail.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2024-06-06T19:09:08.833Z</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="E14" t="str">
+        <v>938398393</v>
+      </c>
+      <c r="F14" t="str">
+        <v>djfa</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
   </ignoredErrors>
 </worksheet>
 </file>